--- a/examples/SBB/old/model_parsing_diagnostics.SBB.xlsx
+++ b/examples/SBB/old/model_parsing_diagnostics.SBB.xlsx
@@ -47,7 +47,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>species_modelled</t>
+    <t>formula</t>
   </si>
   <si>
     <t>codename</t>
@@ -134,7 +134,7 @@
     <t>rNC</t>
   </si>
   <si>
-    <t>TNH4,NH4_ads,NH4{+}</t>
+    <t>TNH4,NH4{+},NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
   </si>
   <si>
     <t>TNH4</t>
@@ -194,7 +194,7 @@
     <t>+2</t>
   </si>
   <si>
-    <t>TMn,Mn{2+},Mn_ads</t>
+    <t>TMn,Mn{2+},Mn_ads,TMn_ads,TMn_ads_nsf,TMn_dis</t>
   </si>
   <si>
     <t>TMn</t>
@@ -218,7 +218,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>TFe,Fe{2+},Fe_ads</t>
+    <t>TFe,Fe{2+}/Fe_aq,FeCl{1+}/FeCl_aq,FeSO4{0}/FeSO4_aq,FeCO3/FeCO3_aq,Fe(CO3)(OH){-}/Fe_CO3_OH_aq,FeHS{+}/FeHS_aq,FeS[1]{0}/FeS_aq,TFe_dis,Fe_ads,TFe_ads,TFe_ads_nsf</t>
   </si>
   <si>
     <t>TFe</t>
@@ -389,6 +389,9 @@
     <t>FeCO3</t>
   </si>
   <si>
+    <t>FeCO3_aq</t>
+  </si>
+  <si>
     <t>RFeCO3_pre</t>
   </si>
   <si>
@@ -446,7 +449,7 @@
     <t>MolS4</t>
   </si>
   <si>
-    <t>Mol,MolS4{2-}/MolS4_aq</t>
+    <t>Mol,MolO4{2-}/MolO4_aq,MolO3S{2-}/MolO3S_aq,MolO2S2{2-}/MolO2S2_aq,MolOS3{2-}/MolOS3_aq,MolS4{2-}/MolS4_aq,Mol_dis</t>
   </si>
   <si>
     <t>Mol</t>
@@ -461,7 +464,7 @@
     <t>MohS4</t>
   </si>
   <si>
-    <t>Moh,MohS4{2-}/MohS4_aq</t>
+    <t>Moh,MohO4{2-}/MohO4_aq,MohO3S{2-}/MohO3S_aq,MohO2S2{2-}/MohO2S2_aq,MohOS3{2-}/MohOS3_aq,MohS4{2-}/MohS4_aq,Moh_dis</t>
   </si>
   <si>
     <t>Moh</t>
@@ -476,12 +479,12 @@
     <t>comment</t>
   </si>
   <si>
+    <t>modelled but not in chemical equation</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
-    <t>modelled but not in chemical equation</t>
-  </si>
-  <si>
     <t>TH3BO3,H3BO3,H4BO4</t>
   </si>
   <si>
@@ -749,9 +752,6 @@
     <t>TCO2,H,TMn,MnCO3</t>
   </si>
   <si>
-    <t>TCO2,H,TFe,FeCO3</t>
-  </si>
-  <si>
     <t>H4SiO4,BSi</t>
   </si>
   <si>
@@ -917,12 +917,6 @@
     <t>AmCa</t>
   </si>
   <si>
-    <t>AmMol</t>
-  </si>
-  <si>
-    <t>AmMoh</t>
-  </si>
-  <si>
     <t>AmH4SiO4</t>
   </si>
   <si>
@@ -977,22 +971,28 @@
     <t>AmF</t>
   </si>
   <si>
-    <t>AmMn</t>
-  </si>
-  <si>
-    <t>AmMn_ads</t>
-  </si>
-  <si>
-    <t>AmFe</t>
-  </si>
-  <si>
-    <t>AmFe_ads</t>
-  </si>
-  <si>
-    <t>AmNH4</t>
-  </si>
-  <si>
-    <t>AmNH4_ads</t>
+    <t>AmTMn_dis</t>
+  </si>
+  <si>
+    <t>AmTMn_ads_nsf</t>
+  </si>
+  <si>
+    <t>AmTFe_dis</t>
+  </si>
+  <si>
+    <t>AmTFe_ads_nsf</t>
+  </si>
+  <si>
+    <t>AmTNH4_dis</t>
+  </si>
+  <si>
+    <t>AmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>AmMol_dis</t>
+  </si>
+  <si>
+    <t>AmMoh_dis</t>
   </si>
   <si>
     <t>BcAmPOC</t>
@@ -1100,18 +1100,6 @@
     <t>BcCmCa</t>
   </si>
   <si>
-    <t>BcAmMol</t>
-  </si>
-  <si>
-    <t>BcCmMol</t>
-  </si>
-  <si>
-    <t>BcAmMoh</t>
-  </si>
-  <si>
-    <t>BcCmMoh</t>
-  </si>
-  <si>
     <t>BcAmH4SiO4</t>
   </si>
   <si>
@@ -1223,40 +1211,52 @@
     <t>BcCmF</t>
   </si>
   <si>
-    <t>BcAmMn</t>
-  </si>
-  <si>
-    <t>BcCmMn</t>
-  </si>
-  <si>
-    <t>BcAmMn_ads</t>
-  </si>
-  <si>
-    <t>BcCmMn_ads</t>
-  </si>
-  <si>
-    <t>BcAmFe</t>
-  </si>
-  <si>
-    <t>BcCmFe</t>
-  </si>
-  <si>
-    <t>BcAmFe_ads</t>
-  </si>
-  <si>
-    <t>BcCmFe_ads</t>
-  </si>
-  <si>
-    <t>BcAmNH4</t>
-  </si>
-  <si>
-    <t>BcCmNH4</t>
-  </si>
-  <si>
-    <t>BcAmNH4_ads</t>
-  </si>
-  <si>
-    <t>BcCmNH4_ads</t>
+    <t>BcAmTMn_dis</t>
+  </si>
+  <si>
+    <t>BcCmTMn_dis</t>
+  </si>
+  <si>
+    <t>BcAmTMn_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTMn_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcAmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcCmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcAmTFe_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTFe_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcAmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcAmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcAmMol_dis</t>
+  </si>
+  <si>
+    <t>BcCmMol_dis</t>
+  </si>
+  <si>
+    <t>BcAmMoh_dis</t>
+  </si>
+  <si>
+    <t>BcCmMoh_dis</t>
   </si>
   <si>
     <t>alpha</t>
@@ -1280,12 +1280,6 @@
     <t>CaBW</t>
   </si>
   <si>
-    <t>MolBW</t>
-  </si>
-  <si>
-    <t>MohBW</t>
-  </si>
-  <si>
     <t>H4SiO4BW</t>
   </si>
   <si>
@@ -1340,82 +1334,88 @@
     <t>FBW</t>
   </si>
   <si>
-    <t>Mn0</t>
-  </si>
-  <si>
-    <t>Fe0</t>
-  </si>
-  <si>
-    <t>NH40</t>
+    <t>TMn_dis0</t>
+  </si>
+  <si>
+    <t>TFe_dis0</t>
+  </si>
+  <si>
+    <t>TNH4_dis0</t>
+  </si>
+  <si>
+    <t>Mol_dis0</t>
+  </si>
+  <si>
+    <t>Moh_dis0</t>
+  </si>
+  <si>
+    <t>dstopw</t>
+  </si>
+  <si>
+    <t>adsorption</t>
+  </si>
+  <si>
+    <t>KH3PO4</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>KH2PO4</t>
+  </si>
+  <si>
+    <t>KHPO4</t>
+  </si>
+  <si>
+    <t>KHSO4</t>
+  </si>
+  <si>
+    <t>KH2O</t>
+  </si>
+  <si>
+    <t>KCO2</t>
+  </si>
+  <si>
+    <t>KHCO3</t>
+  </si>
+  <si>
+    <t>KH2S</t>
+  </si>
+  <si>
+    <t>KH3BO3</t>
+  </si>
+  <si>
+    <t>KHF</t>
   </si>
   <si>
     <t>KMn_ads</t>
   </si>
   <si>
-    <t>adsorption</t>
-  </si>
-  <si>
-    <t>dstopw</t>
+    <t>speciation</t>
+  </si>
+  <si>
+    <t>TMn_dis,Mn_ads</t>
+  </si>
+  <si>
+    <t>TMn_dis,TFe_dis,TNH4_dis</t>
   </si>
   <si>
     <t>KFe_ads</t>
   </si>
   <si>
+    <t>TFe_dis,Fe_ads</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Fe_aq,FeCl_aq,FeSO4_aq,FeCO3_aq,Fe_CO3_OH_aq,FeHS_aq,FeS_aq</t>
+  </si>
+  <si>
     <t>KNH4_ads</t>
   </si>
   <si>
-    <t>KH3PO4</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>KH2PO4</t>
-  </si>
-  <si>
-    <t>KHPO4</t>
-  </si>
-  <si>
-    <t>KHSO4</t>
-  </si>
-  <si>
-    <t>KH2O</t>
-  </si>
-  <si>
-    <t>KCO2</t>
-  </si>
-  <si>
-    <t>KHCO3</t>
-  </si>
-  <si>
-    <t>KH2S</t>
-  </si>
-  <si>
-    <t>KH3BO3</t>
-  </si>
-  <si>
-    <t>KHF</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>speciation</t>
-  </si>
-  <si>
-    <t>Fe_free,FeCl_aq,FeSO4_aq,FeCO3_aq,Fe_CO3_OH_aq,FeHS_aq,FeS_aq</t>
-  </si>
-  <si>
-    <t>Mn,Mn_ads</t>
-  </si>
-  <si>
-    <t>Mn,Fe,NH4</t>
-  </si>
-  <si>
-    <t>Fe,Fe_ads</t>
-  </si>
-  <si>
-    <t>NH4,NH4_ads</t>
+    <t>TNH4_dis,NH4_ads</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -1484,7 +1484,7 @@
     <t>pwtods</t>
   </si>
   <si>
-    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_FeCO3,S_SMol,S_SMoh</t>
+    <t>S_MnO2,S_FeOOH,S_FeS,S_CaCO3,S_MnCO3,S_SMol,S_SMoh</t>
   </si>
   <si>
     <t>KO2</t>
@@ -6931,23 +6931,25 @@
         <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>118</v>
-      </c>
-      <c r="G138"/>
+        <v>62</v>
+      </c>
+      <c r="G138" t="s">
+        <v>119</v>
+      </c>
       <c r="H138" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="I138" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J138">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6983,7 +6985,7 @@
         <v>36</v>
       </c>
       <c r="L139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7019,12 +7021,12 @@
         <v>26</v>
       </c>
       <c r="L140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B141" t="s">
         <v>60</v>
@@ -7060,7 +7062,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B142" t="s">
         <v>112</v>
@@ -7096,7 +7098,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B143" t="s">
         <v>118</v>
@@ -7111,20 +7113,22 @@
         <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>118</v>
-      </c>
-      <c r="G143"/>
+        <v>62</v>
+      </c>
+      <c r="G143" t="s">
+        <v>119</v>
+      </c>
       <c r="H143" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="I143" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J143">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K143" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L143" t="s">
         <v>21</v>
@@ -7132,10 +7136,10 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
@@ -7147,11 +7151,11 @@
         <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G144"/>
       <c r="H144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I144" t="s">
         <v>19</v>
@@ -7168,10 +7172,10 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -7183,11 +7187,11 @@
         <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G145"/>
       <c r="H145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I145" t="s">
         <v>21</v>
@@ -7204,10 +7208,10 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" t="s">
         <v>123</v>
-      </c>
-      <c r="B146" t="s">
-        <v>122</v>
       </c>
       <c r="C146" t="s">
         <v>14</v>
@@ -7219,11 +7223,11 @@
         <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G146"/>
       <c r="H146" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I146" t="s">
         <v>21</v>
@@ -7240,13 +7244,13 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
         <v>111</v>
       </c>
       <c r="C147" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D147" t="s">
         <v>53</v>
@@ -7276,16 +7280,16 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B148" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D148" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E148" t="s">
         <v>16</v>
@@ -7312,13 +7316,13 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
         <v>112</v>
       </c>
       <c r="C149" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D149" t="s">
         <v>47</v>
@@ -7348,13 +7352,13 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C150" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -7363,11 +7367,11 @@
         <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G150"/>
       <c r="H150" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I150" t="s">
         <v>26</v>
@@ -7384,13 +7388,13 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
@@ -7420,10 +7424,10 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -7435,20 +7439,20 @@
         <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G152"/>
       <c r="H152" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I152" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J152">
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L152" t="s">
         <v>21</v>
@@ -7456,10 +7460,10 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -7471,11 +7475,11 @@
         <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G153"/>
       <c r="H153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
@@ -7492,10 +7496,10 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -7507,20 +7511,20 @@
         <v>16</v>
       </c>
       <c r="F154" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G154"/>
       <c r="H154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I154" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J154">
         <v>22</v>
       </c>
       <c r="K154" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L154" t="s">
         <v>21</v>
@@ -7528,10 +7532,10 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -7543,11 +7547,11 @@
         <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G155"/>
       <c r="H155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
@@ -7569,7 +7573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -7577,15 +7581,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>149</v>
@@ -7604,15 +7608,15 @@
         <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
         <v>153</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7620,7 +7624,7 @@
         <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7628,7 +7632,7 @@
         <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7636,7 +7640,7 @@
         <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7644,7 +7648,7 @@
         <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7652,7 +7656,7 @@
         <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7660,7 +7664,15 @@
         <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7681,10 +7693,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7692,7 +7704,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -7714,7 +7726,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -7725,10 +7737,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7739,7 +7751,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7750,7 +7762,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7758,10 +7770,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7769,10 +7781,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7780,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -7794,7 +7806,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7802,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -7813,7 +7825,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -7824,10 +7836,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7838,7 +7850,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7849,7 +7861,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7857,10 +7869,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7868,10 +7880,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7890,7 +7902,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -7901,7 +7913,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -7923,7 +7935,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -7934,10 +7946,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7948,7 +7960,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7959,7 +7971,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7967,10 +7979,10 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7978,10 +7990,10 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7989,7 +8001,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -8000,10 +8012,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8014,7 +8026,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8022,7 +8034,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -8033,7 +8045,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -8044,10 +8056,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8058,7 +8070,7 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8069,7 +8081,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8077,10 +8089,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8088,10 +8100,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8099,10 +8111,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8113,7 +8125,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8121,10 +8133,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8132,7 +8144,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -8154,7 +8166,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -8165,10 +8177,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8179,7 +8191,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8190,7 +8202,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8198,10 +8210,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8209,10 +8221,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8220,7 +8232,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -8231,10 +8243,10 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8245,7 +8257,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8253,7 +8265,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -8264,7 +8276,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -8275,10 +8287,10 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8289,7 +8301,7 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8300,7 +8312,7 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8308,10 +8320,10 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8319,10 +8331,10 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8330,7 +8342,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
@@ -8341,7 +8353,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -8363,7 +8375,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -8374,7 +8386,7 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -8396,7 +8408,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -8407,10 +8419,10 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8421,7 +8433,7 @@
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8432,7 +8444,7 @@
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8440,10 +8452,10 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8451,10 +8463,10 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8473,7 +8485,7 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
         <v>58</v>
@@ -8487,7 +8499,7 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8495,7 +8507,7 @@
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -8506,7 +8518,7 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -8517,10 +8529,10 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8531,7 +8543,7 @@
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8542,7 +8554,7 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8550,10 +8562,10 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8561,10 +8573,10 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8586,7 +8598,7 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8594,10 +8606,10 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8605,7 +8617,7 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -8627,7 +8639,7 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -8638,10 +8650,10 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8652,7 +8664,7 @@
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8663,7 +8675,7 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8671,10 +8683,10 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8682,10 +8694,10 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8704,7 +8716,7 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
         <v>58</v>
@@ -8715,7 +8727,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
         <v>58</v>
@@ -8740,7 +8752,7 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8748,7 +8760,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -8759,7 +8771,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
@@ -8770,10 +8782,10 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8784,7 +8796,7 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8795,7 +8807,7 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8803,10 +8815,10 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8814,10 +8826,10 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8839,7 +8851,7 @@
         <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8847,10 +8859,10 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8858,7 +8870,7 @@
         <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -8880,7 +8892,7 @@
         <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -8891,10 +8903,10 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8905,7 +8917,7 @@
         <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8916,7 +8928,7 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8924,10 +8936,10 @@
         <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8935,10 +8947,10 @@
         <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8946,7 +8958,7 @@
         <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
         <v>66</v>
@@ -8957,7 +8969,7 @@
         <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
         <v>47</v>
@@ -8971,7 +8983,7 @@
         <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -8979,7 +8991,7 @@
         <v>64</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -8990,7 +9002,7 @@
         <v>64</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C120" t="s">
         <v>48</v>
@@ -9001,10 +9013,10 @@
         <v>64</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C121" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9015,7 +9027,7 @@
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9026,7 +9038,7 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9034,10 +9046,10 @@
         <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9045,10 +9057,10 @@
         <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9067,7 +9079,7 @@
         <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C127" t="s">
         <v>71</v>
@@ -9089,7 +9101,7 @@
         <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -9100,7 +9112,7 @@
         <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -9122,7 +9134,7 @@
         <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -9133,10 +9145,10 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C133" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9147,7 +9159,7 @@
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9158,7 +9170,7 @@
         <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9166,10 +9178,10 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9177,10 +9189,10 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9191,7 +9203,7 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9199,7 +9211,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
         <v>71</v>
@@ -9210,7 +9222,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -9221,7 +9233,7 @@
         <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C141" t="s">
         <v>71</v>
@@ -9243,10 +9255,10 @@
         <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C143" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9257,7 +9269,7 @@
         <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9268,7 +9280,7 @@
         <v>22</v>
       </c>
       <c r="C145" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9276,10 +9288,10 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9287,10 +9299,10 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9298,7 +9310,7 @@
         <v>76</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -9309,7 +9321,7 @@
         <v>76</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -9320,7 +9332,7 @@
         <v>76</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C150" t="s">
         <v>47</v>
@@ -9331,7 +9343,7 @@
         <v>76</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -9342,10 +9354,10 @@
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9353,10 +9365,10 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9364,7 +9376,7 @@
         <v>77</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -9386,7 +9398,7 @@
         <v>77</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -9397,7 +9409,7 @@
         <v>77</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C157" t="s">
         <v>48</v>
@@ -9430,7 +9442,7 @@
         <v>77</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -9441,7 +9453,7 @@
         <v>79</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -9474,7 +9486,7 @@
         <v>79</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -9496,7 +9508,7 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C166" t="s">
         <v>48</v>
@@ -9518,7 +9530,7 @@
         <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C168" t="s">
         <v>66</v>
@@ -9543,7 +9555,7 @@
         <v>22</v>
       </c>
       <c r="C170" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9551,7 +9563,7 @@
         <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C171" t="s">
         <v>78</v>
@@ -9573,7 +9585,7 @@
         <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -9584,7 +9596,7 @@
         <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -9617,7 +9629,7 @@
         <v>87</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C177" t="s">
         <v>58</v>
@@ -9639,7 +9651,7 @@
         <v>87</v>
       </c>
       <c r="B179" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -9650,7 +9662,7 @@
         <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -9661,7 +9673,7 @@
         <v>87</v>
       </c>
       <c r="B181" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C181" t="s">
         <v>61</v>
@@ -9683,10 +9695,10 @@
         <v>88</v>
       </c>
       <c r="B183" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9705,7 +9717,7 @@
         <v>88</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
@@ -9719,7 +9731,7 @@
         <v>22</v>
       </c>
       <c r="C186" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9727,7 +9739,7 @@
         <v>88</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C187" t="s">
         <v>78</v>
@@ -9749,7 +9761,7 @@
         <v>88</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -9760,7 +9772,7 @@
         <v>88</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -9782,7 +9794,7 @@
         <v>88</v>
       </c>
       <c r="B192" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -9793,7 +9805,7 @@
         <v>88</v>
       </c>
       <c r="B193" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s">
         <v>61</v>
@@ -9815,7 +9827,7 @@
         <v>91</v>
       </c>
       <c r="B195" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C195" t="s">
         <v>58</v>
@@ -9826,7 +9838,7 @@
         <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
@@ -9848,7 +9860,7 @@
         <v>91</v>
       </c>
       <c r="B198" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -9859,7 +9871,7 @@
         <v>91</v>
       </c>
       <c r="B199" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C199" t="s">
         <v>48</v>
@@ -9881,7 +9893,7 @@
         <v>91</v>
       </c>
       <c r="B201" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C201" t="s">
         <v>48</v>
@@ -9892,7 +9904,7 @@
         <v>92</v>
       </c>
       <c r="B202" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -9903,7 +9915,7 @@
         <v>92</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C203" t="s">
         <v>47</v>
@@ -9914,7 +9926,7 @@
         <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
@@ -9936,7 +9948,7 @@
         <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C206" t="s">
         <v>48</v>
@@ -9958,7 +9970,7 @@
         <v>92</v>
       </c>
       <c r="B208" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C208" t="s">
         <v>48</v>
@@ -9969,7 +9981,7 @@
         <v>93</v>
       </c>
       <c r="B209" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C209" t="s">
         <v>94</v>
@@ -9980,10 +9992,10 @@
         <v>93</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C210" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10005,7 +10017,7 @@
         <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10013,10 +10025,10 @@
         <v>93</v>
       </c>
       <c r="B213" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C213" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10035,7 +10047,7 @@
         <v>93</v>
       </c>
       <c r="B215" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C215" t="s">
         <v>48</v>
@@ -10046,10 +10058,10 @@
         <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C216" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -10068,7 +10080,7 @@
         <v>96</v>
       </c>
       <c r="B218" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C218" t="s">
         <v>97</v>
@@ -10079,10 +10091,10 @@
         <v>96</v>
       </c>
       <c r="B219" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C219" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -10104,7 +10116,7 @@
         <v>22</v>
       </c>
       <c r="C221" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -10112,10 +10124,10 @@
         <v>96</v>
       </c>
       <c r="B222" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C222" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10134,7 +10146,7 @@
         <v>96</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -10145,7 +10157,7 @@
         <v>96</v>
       </c>
       <c r="B225" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -10167,10 +10179,10 @@
         <v>96</v>
       </c>
       <c r="B227" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C227" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10189,7 +10201,7 @@
         <v>99</v>
       </c>
       <c r="B229" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -10200,10 +10212,10 @@
         <v>99</v>
       </c>
       <c r="B230" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C230" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10222,7 +10234,7 @@
         <v>99</v>
       </c>
       <c r="B232" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -10244,7 +10256,7 @@
         <v>99</v>
       </c>
       <c r="B234" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -10255,7 +10267,7 @@
         <v>99</v>
       </c>
       <c r="B235" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -10266,7 +10278,7 @@
         <v>99</v>
       </c>
       <c r="B236" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C236" t="s">
         <v>61</v>
@@ -10277,7 +10289,7 @@
         <v>99</v>
       </c>
       <c r="B237" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -10299,7 +10311,7 @@
         <v>100</v>
       </c>
       <c r="B239" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
@@ -10310,7 +10322,7 @@
         <v>100</v>
       </c>
       <c r="B240" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C240" t="s">
         <v>58</v>
@@ -10321,7 +10333,7 @@
         <v>100</v>
       </c>
       <c r="B241" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C241" t="s">
         <v>14</v>
@@ -10354,7 +10366,7 @@
         <v>100</v>
       </c>
       <c r="B244" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -10365,7 +10377,7 @@
         <v>100</v>
       </c>
       <c r="B245" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C245" t="s">
         <v>48</v>
@@ -10387,7 +10399,7 @@
         <v>100</v>
       </c>
       <c r="B247" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -10409,7 +10421,7 @@
         <v>100</v>
       </c>
       <c r="B249" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C249" t="s">
         <v>48</v>
@@ -10431,7 +10443,7 @@
         <v>101</v>
       </c>
       <c r="B251" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
@@ -10464,7 +10476,7 @@
         <v>101</v>
       </c>
       <c r="B254" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
@@ -10497,7 +10509,7 @@
         <v>101</v>
       </c>
       <c r="B257" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -10508,7 +10520,7 @@
         <v>101</v>
       </c>
       <c r="B258" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -10552,7 +10564,7 @@
         <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C262" t="s">
         <v>47</v>
@@ -10574,7 +10586,7 @@
         <v>102</v>
       </c>
       <c r="B264" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
@@ -10607,7 +10619,7 @@
         <v>102</v>
       </c>
       <c r="B267" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -10629,7 +10641,7 @@
         <v>102</v>
       </c>
       <c r="B269" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C269" t="s">
         <v>48</v>
@@ -10651,7 +10663,7 @@
         <v>103</v>
       </c>
       <c r="B271" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C271" t="s">
         <v>47</v>
@@ -10662,7 +10674,7 @@
         <v>103</v>
       </c>
       <c r="B272" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C272" t="s">
         <v>47</v>
@@ -10695,7 +10707,7 @@
         <v>103</v>
       </c>
       <c r="B275" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
@@ -10728,7 +10740,7 @@
         <v>103</v>
       </c>
       <c r="B278" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -10742,7 +10754,7 @@
         <v>22</v>
       </c>
       <c r="C279" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -10750,7 +10762,7 @@
         <v>103</v>
       </c>
       <c r="B280" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C280" t="s">
         <v>61</v>
@@ -10772,7 +10784,7 @@
         <v>104</v>
       </c>
       <c r="B282" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -10794,7 +10806,7 @@
         <v>104</v>
       </c>
       <c r="B284" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -10816,7 +10828,7 @@
         <v>104</v>
       </c>
       <c r="B286" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C286" t="s">
         <v>48</v>
@@ -10849,7 +10861,7 @@
         <v>106</v>
       </c>
       <c r="B289" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -10893,7 +10905,7 @@
         <v>106</v>
       </c>
       <c r="B293" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -10926,7 +10938,7 @@
         <v>108</v>
       </c>
       <c r="B296" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C296" t="s">
         <v>14</v>
@@ -10948,7 +10960,7 @@
         <v>108</v>
       </c>
       <c r="B298" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -10981,7 +10993,7 @@
         <v>109</v>
       </c>
       <c r="B301" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -10992,10 +11004,10 @@
         <v>109</v>
       </c>
       <c r="B302" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C302" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -11014,7 +11026,7 @@
         <v>109</v>
       </c>
       <c r="B304" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -11025,10 +11037,10 @@
         <v>109</v>
       </c>
       <c r="B305" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C305" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -11047,7 +11059,7 @@
         <v>113</v>
       </c>
       <c r="B307" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
@@ -11058,10 +11070,10 @@
         <v>113</v>
       </c>
       <c r="B308" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C308" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -11080,7 +11092,7 @@
         <v>113</v>
       </c>
       <c r="B310" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -11091,10 +11103,10 @@
         <v>113</v>
       </c>
       <c r="B311" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C311" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -11113,7 +11125,7 @@
         <v>114</v>
       </c>
       <c r="B313" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C313" t="s">
         <v>14</v>
@@ -11124,10 +11136,10 @@
         <v>114</v>
       </c>
       <c r="B314" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C314" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -11146,7 +11158,7 @@
         <v>114</v>
       </c>
       <c r="B316" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -11157,10 +11169,10 @@
         <v>114</v>
       </c>
       <c r="B317" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C317" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -11179,7 +11191,7 @@
         <v>116</v>
       </c>
       <c r="B319" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -11190,10 +11202,10 @@
         <v>116</v>
       </c>
       <c r="B320" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C320" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -11212,7 +11224,7 @@
         <v>116</v>
       </c>
       <c r="B322" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -11223,10 +11235,10 @@
         <v>116</v>
       </c>
       <c r="B323" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C323" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -11245,7 +11257,7 @@
         <v>117</v>
       </c>
       <c r="B325" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
@@ -11256,10 +11268,10 @@
         <v>117</v>
       </c>
       <c r="B326" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C326" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -11278,7 +11290,7 @@
         <v>117</v>
       </c>
       <c r="B328" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -11289,15 +11301,15 @@
         <v>117</v>
       </c>
       <c r="B329" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C329" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B330" t="s">
         <v>60</v>
@@ -11308,10 +11320,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B331" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C331" t="s">
         <v>14</v>
@@ -11319,18 +11331,18 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B332" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C332" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B333" t="s">
         <v>60</v>
@@ -11341,10 +11353,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B334" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -11352,18 +11364,18 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B335" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C335" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B336" t="s">
         <v>22</v>
@@ -11374,10 +11386,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B337" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C337" t="s">
         <v>14</v>
@@ -11385,10 +11397,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B338" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C338" t="s">
         <v>58</v>
@@ -11396,10 +11408,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B339" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -11407,10 +11419,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B340" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C340" t="s">
         <v>48</v>
@@ -11418,7 +11430,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B341" t="s">
         <v>22</v>
@@ -11429,10 +11441,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B342" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C342" t="s">
         <v>48</v>
@@ -11440,222 +11452,222 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B343" t="s">
         <v>111</v>
       </c>
       <c r="C343" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B344" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C344" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B345" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C345" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B346" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C346" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B347" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C347" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B348" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C348" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B349" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C349" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B350" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C350" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B351" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C351" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B352" t="s">
         <v>22</v>
       </c>
       <c r="C352" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B353" t="s">
         <v>111</v>
       </c>
       <c r="C353" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B354" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C354" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B355" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C355" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B356" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C356" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B357" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C357" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B358" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C358" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B359" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C359" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B360" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C360" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B361" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C361" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B362" t="s">
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -11665,7 +11677,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -11676,7 +11688,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11684,7 +11696,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11692,7 +11704,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11700,7 +11712,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11708,7 +11720,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11716,7 +11728,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11724,7 +11736,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11732,7 +11744,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11740,7 +11752,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11748,7 +11760,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11756,7 +11768,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11764,7 +11776,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11772,7 +11784,7 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11780,7 +11792,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11788,7 +11800,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11796,7 +11808,7 @@
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11804,7 +11816,7 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11812,7 +11824,7 @@
         <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11820,7 +11832,7 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11828,7 +11840,7 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11836,20 +11848,20 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>240</v>
@@ -11857,23 +11869,23 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
         <v>242</v>
@@ -11881,25 +11893,17 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11910,7 +11914,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -13449,31 +13453,31 @@
         <v>441</v>
       </c>
       <c r="B192" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
+        <v>443</v>
+      </c>
+      <c r="B193" t="s">
         <v>442</v>
-      </c>
-      <c r="B193" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B194" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B195" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -13481,7 +13485,7 @@
         <v>446</v>
       </c>
       <c r="B196" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -13489,7 +13493,7 @@
         <v>447</v>
       </c>
       <c r="B197" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -13497,7 +13501,7 @@
         <v>448</v>
       </c>
       <c r="B198" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -13505,7 +13509,7 @@
         <v>449</v>
       </c>
       <c r="B199" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -13513,7 +13517,7 @@
         <v>450</v>
       </c>
       <c r="B200" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -13521,31 +13525,7 @@
         <v>451</v>
       </c>
       <c r="B201" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>452</v>
-      </c>
-      <c r="B202" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>453</v>
-      </c>
-      <c r="B203" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>454</v>
-      </c>
-      <c r="B204" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -13569,18 +13549,18 @@
         <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13588,40 +13568,40 @@
         <v>439</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
         <v>461</v>
@@ -13717,7 +13697,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
         <v>479</v>
@@ -14141,7 +14121,7 @@
         <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -14152,7 +14132,7 @@
         <v>479</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -14163,7 +14143,7 @@
         <v>479</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -14174,7 +14154,7 @@
         <v>479</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -14185,7 +14165,7 @@
         <v>479</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -14196,7 +14176,7 @@
         <v>479</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -14207,7 +14187,7 @@
         <v>479</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
